--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.1/percents/scores-5.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.1/percents/scores-5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="159">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,126 +46,132 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>killed</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>fear</t>
   </si>
   <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>ft</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>0.95-negative</t>
   </si>
   <si>
@@ -175,27 +181,27 @@
     <t>like</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>wise</t>
   </si>
   <si>
@@ -205,238 +211,238 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>purchases</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>facilities</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>asking</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>selling</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>experts</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cbc</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>treat</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>investing</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>looking</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>stable</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>recovery</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>agreed</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>selling</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>experts</t>
-  </si>
-  <si>
-    <t>challenges</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>maintain</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>changed</t>
-  </si>
-  <si>
-    <t>insight</t>
-  </si>
-  <si>
-    <t>decided</t>
-  </si>
-  <si>
-    <t>fair</t>
-  </si>
-  <si>
-    <t>universal</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>us</t>
   </si>
   <si>
     <t>business</t>
@@ -454,10 +460,16 @@
     <t>get</t>
   </si>
   <si>
+    <t>going</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>19</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -836,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS99"/>
+  <dimension ref="A1:BS102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -844,28 +856,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="S1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AB1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="AK1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AT1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="BC1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="BL1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -1067,13 +1079,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01311996044939968</v>
+        <v>0.0144545727846902</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1085,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0.008025009080343256</v>
+        <v>0.007572285650155335</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1109,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.01466424684104638</v>
+        <v>0.09079168000694601</v>
       </c>
       <c r="U3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="V3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1133,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AC3">
-        <v>0.03646730509018602</v>
+        <v>0.04854060144324923</v>
       </c>
       <c r="AD3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1157,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.01692128079806847</v>
+        <v>0.06341058324992112</v>
       </c>
       <c r="AM3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AN3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1181,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AU3">
-        <v>0.02623715778109388</v>
+        <v>0.02929259321274057</v>
       </c>
       <c r="AV3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -1205,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.02053253512930382</v>
+        <v>0.05089520833074961</v>
       </c>
       <c r="BE3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BF3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1229,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BM3">
-        <v>0.02173020573622214</v>
+        <v>0.02281898087080165</v>
       </c>
       <c r="BN3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BO3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1253,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1261,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.005509606635834383</v>
+        <v>0.005485430934678313</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -1282,10 +1294,10 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.005329442826780622</v>
+        <v>0.005329402617107605</v>
       </c>
       <c r="L4">
         <v>11</v>
@@ -1309,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.006451087260791754</v>
+        <v>0.04423706967675625</v>
       </c>
       <c r="U4">
         <v>11</v>
@@ -1330,10 +1342,10 @@
         <v>4</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AC4">
-        <v>0.02584615275625995</v>
+        <v>0.03469549588217938</v>
       </c>
       <c r="AD4">
         <v>11</v>
@@ -1357,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.007827097404960221</v>
+        <v>0.03647852832370845</v>
       </c>
       <c r="AM4">
         <v>11</v>
@@ -1378,10 +1390,10 @@
         <v>4</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AU4">
-        <v>0.01966726474528216</v>
+        <v>0.02227588702664457</v>
       </c>
       <c r="AV4">
         <v>11</v>
@@ -1405,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.01002871363562977</v>
+        <v>0.03293224766442928</v>
       </c>
       <c r="BE4">
         <v>11</v>
@@ -1426,10 +1438,10 @@
         <v>4</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BM4">
-        <v>0.01694511900146089</v>
+        <v>0.01809884531893123</v>
       </c>
       <c r="BN4">
         <v>11</v>
@@ -1455,13 +1467,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.003223790417069548</v>
+        <v>0.004071620079546494</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1473,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.004022786153562401</v>
+        <v>0.00401763529444876</v>
       </c>
       <c r="L5">
         <v>8</v>
@@ -1497,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.003809936996417772</v>
+        <v>0.03572220302829868</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1521,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC5">
-        <v>0.02117643420501232</v>
+        <v>0.02722128926684016</v>
       </c>
       <c r="AD5">
         <v>8</v>
@@ -1545,19 +1557,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.004666612766234409</v>
+        <v>0.0307570373295787</v>
       </c>
       <c r="AM5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1569,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AU5">
-        <v>0.01706828095673468</v>
+        <v>0.01879950956298174</v>
       </c>
       <c r="AV5">
         <v>8</v>
@@ -1593,19 +1605,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.006037293997941028</v>
+        <v>0.0284875551825808</v>
       </c>
       <c r="BE5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BF5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1617,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BM5">
-        <v>0.01525840968865276</v>
+        <v>0.01596704313949102</v>
       </c>
       <c r="BN5">
         <v>8</v>
@@ -1641,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1649,7 +1661,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003156959930029521</v>
+        <v>0.003209697558296001</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -1667,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.004022786153562401</v>
+        <v>0.004012489461544246</v>
       </c>
       <c r="L6">
         <v>8</v>
@@ -1691,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.003492492182977648</v>
+        <v>0.03184985407593519</v>
       </c>
       <c r="U6">
         <v>6</v>
@@ -1715,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AC6">
-        <v>0.02117643420501232</v>
+        <v>0.02709509885452158</v>
       </c>
       <c r="AD6">
         <v>8</v>
@@ -1739,13 +1751,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.003982885475747986</v>
+        <v>0.02892363956141949</v>
       </c>
       <c r="AM6">
         <v>6</v>
@@ -1763,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AU6">
-        <v>0.01706828095673468</v>
+        <v>0.01868835104055829</v>
       </c>
       <c r="AV6">
         <v>8</v>
@@ -1787,13 +1799,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.004767514744180528</v>
+        <v>0.02758612295030386</v>
       </c>
       <c r="BE6">
         <v>6</v>
@@ -1811,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="BM6">
-        <v>0.01525840968865276</v>
+        <v>0.01586094023772101</v>
       </c>
       <c r="BN6">
         <v>8</v>
@@ -1835,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1843,13 +1855,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002736810494483338</v>
+        <v>0.003189114226677945</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1861,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.004017645346867014</v>
+        <v>0.003570087854420116</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1891,13 +1903,13 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.003140077719085074</v>
+        <v>0.03138919991084373</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1909,19 +1921,19 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AC7">
-        <v>0.0210963270030479</v>
+        <v>0.02447750623708991</v>
       </c>
       <c r="AD7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1939,13 +1951,13 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.003729468278118381</v>
+        <v>0.02841787031173593</v>
       </c>
       <c r="AM7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1957,19 +1969,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AU7">
-        <v>0.01698253561556488</v>
+        <v>0.01741840003024723</v>
       </c>
       <c r="AV7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -1987,13 +1999,13 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.004672493172571672</v>
+        <v>0.02705973245950674</v>
       </c>
       <c r="BE7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -2005,19 +2017,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BM7">
-        <v>0.0151701804318312</v>
+        <v>0.01504423660947093</v>
       </c>
       <c r="BN7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -2037,7 +2049,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002296097832155608</v>
+        <v>0.002291170875095854</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -2055,19 +2067,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.004012504540171628</v>
+        <v>0.00311739458148696</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2085,7 +2097,7 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.002689987927980155</v>
+        <v>0.02671070616957018</v>
       </c>
       <c r="U8">
         <v>4</v>
@@ -2103,19 +2115,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AC8">
-        <v>0.02101621980108347</v>
+        <v>0.02160753279502107</v>
       </c>
       <c r="AD8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -2133,7 +2145,7 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.0032656734526468</v>
+        <v>0.02569937635663049</v>
       </c>
       <c r="AM8">
         <v>4</v>
@@ -2151,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AU8">
-        <v>0.01689679027439508</v>
+        <v>0.01592613197508926</v>
       </c>
       <c r="AV8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX8">
         <v>1</v>
@@ -2181,7 +2193,7 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.004186770292113433</v>
+        <v>0.02523711686833486</v>
       </c>
       <c r="BE8">
         <v>4</v>
@@ -2199,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BM8">
-        <v>0.01508195117500964</v>
+        <v>0.01401532717768084</v>
       </c>
       <c r="BN8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BO8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -2231,13 +2243,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.001839962749741718</v>
+        <v>0.00226029587766877</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2249,19 +2261,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.002669862220085698</v>
+        <v>0.002232591367238702</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2273,19 +2285,19 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.002166641641465976</v>
+        <v>0.02601972492193299</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2297,19 +2309,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AC9">
-        <v>0.01578575083608487</v>
+        <v>0.01637234756015775</v>
       </c>
       <c r="AD9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -2321,19 +2333,19 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.002644095406293736</v>
+        <v>0.02494072248210514</v>
       </c>
       <c r="AM9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO9">
         <v>0</v>
@@ -2345,19 +2357,19 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AU9">
-        <v>0.01369758909765902</v>
+        <v>0.01338622995446714</v>
       </c>
       <c r="AV9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX9">
         <v>1</v>
@@ -2369,19 +2381,19 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.003408021430018154</v>
+        <v>0.02444753113213917</v>
       </c>
       <c r="BE9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BF9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG9">
         <v>0</v>
@@ -2393,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BM9">
-        <v>0.01277763706445058</v>
+        <v>0.01238191992118069</v>
       </c>
       <c r="BN9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP9">
         <v>1</v>
@@ -2417,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2425,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.001839962749741718</v>
+        <v>0.00183190753349578</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2446,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.002232596393447829</v>
+        <v>0.002232591367238702</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -2473,7 +2485,7 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.002166641641465976</v>
+        <v>0.02414113221638767</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -2494,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC10">
-        <v>0.01420247558501419</v>
+        <v>0.01637234756015775</v>
       </c>
       <c r="AD10">
         <v>4</v>
@@ -2521,7 +2533,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.002644095406293736</v>
+        <v>0.02408724475423598</v>
       </c>
       <c r="AM10">
         <v>3</v>
@@ -2542,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU10">
-        <v>0.01280267938775326</v>
+        <v>0.01338622995446714</v>
       </c>
       <c r="AV10">
         <v>4</v>
@@ -2569,7 +2581,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.003408021430018154</v>
+        <v>0.02406261382735035</v>
       </c>
       <c r="BE10">
         <v>3</v>
@@ -2590,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BM10">
-        <v>0.01218599087457401</v>
+        <v>0.01238191992118069</v>
       </c>
       <c r="BN10">
         <v>4</v>
@@ -2619,7 +2631,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.001839962749741718</v>
+        <v>0.001826761700591266</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2637,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.002232596393447829</v>
+        <v>0.00221715386852516</v>
       </c>
       <c r="L11">
         <v>4</v>
@@ -2661,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.002166641641465976</v>
+        <v>0.02402596867511481</v>
       </c>
       <c r="U11">
         <v>3</v>
@@ -2685,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AC11">
-        <v>0.01420247558501419</v>
+        <v>0.01599377632320199</v>
       </c>
       <c r="AD11">
         <v>4</v>
@@ -2709,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.002644095406293736</v>
+        <v>0.02396080244181509</v>
       </c>
       <c r="AM11">
         <v>3</v>
@@ -2733,13 +2745,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AU11">
-        <v>0.01280267938775326</v>
+        <v>0.01305275438719679</v>
       </c>
       <c r="AV11">
         <v>4</v>
@@ -2757,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.003408021430018154</v>
+        <v>0.02393101620465107</v>
       </c>
       <c r="BE11">
         <v>3</v>
@@ -2781,13 +2793,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BM11">
-        <v>0.01218599087457401</v>
+        <v>0.01206361121587067</v>
       </c>
       <c r="BN11">
         <v>4</v>
@@ -2805,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2813,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.001834821943046332</v>
+        <v>0.001821615867686752</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2831,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.001785048953419185</v>
+        <v>0.001785043927210058</v>
       </c>
       <c r="L12">
         <v>3</v>
@@ -2861,7 +2873,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002142222809662889</v>
+        <v>0.02391080513384194</v>
       </c>
       <c r="U12">
         <v>3</v>
@@ -2879,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AC12">
-        <v>0.01245898593001465</v>
+        <v>0.0136285645304075</v>
       </c>
       <c r="AD12">
         <v>3</v>
@@ -2909,7 +2921,7 @@
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.002591500999333242</v>
+        <v>0.0238343601293942</v>
       </c>
       <c r="AM12">
         <v>3</v>
@@ -2927,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AU12">
-        <v>0.0117362789955079</v>
+        <v>0.01200512042173263</v>
       </c>
       <c r="AV12">
         <v>3</v>
@@ -2957,7 +2969,7 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.003310346102805807</v>
+        <v>0.02379941858195179</v>
       </c>
       <c r="BE12">
         <v>3</v>
@@ -2975,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="BM12">
-        <v>0.01141788617105433</v>
+        <v>0.01145911339116061</v>
       </c>
       <c r="BN12">
         <v>3</v>
@@ -3007,7 +3019,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.001834821943046332</v>
+        <v>0.001821615867686752</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -3025,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.001785048953419185</v>
+        <v>0.001785043927210058</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -3055,7 +3067,7 @@
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002142222809662889</v>
+        <v>0.02391080513384194</v>
       </c>
       <c r="U13">
         <v>3</v>
@@ -3073,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC13">
-        <v>0.01245898593001465</v>
+        <v>0.0136285645304075</v>
       </c>
       <c r="AD13">
         <v>3</v>
@@ -3103,7 +3115,7 @@
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.002591500999333242</v>
+        <v>0.0238343601293942</v>
       </c>
       <c r="AM13">
         <v>3</v>
@@ -3121,13 +3133,13 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AU13">
-        <v>0.0117362789955079</v>
+        <v>0.01200512042173263</v>
       </c>
       <c r="AV13">
         <v>3</v>
@@ -3151,7 +3163,7 @@
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.003310346102805807</v>
+        <v>0.02379941858195179</v>
       </c>
       <c r="BE13">
         <v>3</v>
@@ -3169,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BM13">
-        <v>0.01141788617105433</v>
+        <v>0.01145911339116061</v>
       </c>
       <c r="BN13">
         <v>3</v>
@@ -3201,13 +3213,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.001829681136350945</v>
+        <v>0.001372644191895707</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3219,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.001785048953419185</v>
+        <v>0.001785043927210058</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3249,13 +3261,13 @@
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002117803977859802</v>
+        <v>0.02157155826320517</v>
       </c>
       <c r="U14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3267,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC14">
-        <v>0.01245898593001465</v>
+        <v>0.0136285645304075</v>
       </c>
       <c r="AD14">
         <v>3</v>
@@ -3297,13 +3309,13 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.002538906592372748</v>
+        <v>0.02247511315184148</v>
       </c>
       <c r="AM14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3315,13 +3327,13 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AU14">
-        <v>0.0117362789955079</v>
+        <v>0.01200512042173263</v>
       </c>
       <c r="AV14">
         <v>3</v>
@@ -3345,13 +3357,13 @@
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.003212670775593461</v>
+        <v>0.02288811078636584</v>
       </c>
       <c r="BE14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3363,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="BM14">
-        <v>0.01141788617105433</v>
+        <v>0.01145911339116061</v>
       </c>
       <c r="BN14">
         <v>3</v>
@@ -3395,13 +3407,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.001803977102874012</v>
+        <v>0.001372644191895707</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3413,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.001769626533333026</v>
+        <v>0.001779898094305544</v>
       </c>
       <c r="L15">
         <v>3</v>
@@ -3437,19 +3449,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.00199570981884437</v>
+        <v>0.02157155826320517</v>
       </c>
       <c r="U15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3461,13 +3473,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC15">
-        <v>0.01221866432412138</v>
+        <v>0.01350237411808891</v>
       </c>
       <c r="AD15">
         <v>3</v>
@@ -3485,19 +3497,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.002275934557570278</v>
+        <v>0.02247511315184148</v>
       </c>
       <c r="AM15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3509,13 +3521,13 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AU15">
-        <v>0.01147904297199852</v>
+        <v>0.01189396189930918</v>
       </c>
       <c r="AV15">
         <v>3</v>
@@ -3533,19 +3545,19 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.00272429413953173</v>
+        <v>0.02288811078636584</v>
       </c>
       <c r="BE15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3557,13 +3569,13 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="BM15">
-        <v>0.01115319840058964</v>
+        <v>0.0113530104893906</v>
       </c>
       <c r="BN15">
         <v>3</v>
@@ -3581,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3589,7 +3601,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.001378686860632442</v>
+        <v>0.001372644191895707</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3610,16 +3622,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.001337501513390542</v>
+        <v>0.00177475226140103</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3631,13 +3643,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.00161887652314871</v>
+        <v>0.02157155826320517</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -3658,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AC16">
-        <v>0.01071549627501511</v>
+        <v>0.01337618370577032</v>
       </c>
       <c r="AD16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -3679,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.001969922952980179</v>
+        <v>0.02247511315184148</v>
       </c>
       <c r="AM16">
         <v>2</v>
@@ -3706,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AU16">
-        <v>0.01066987860326255</v>
+        <v>0.01178280337688573</v>
       </c>
       <c r="AV16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX16">
         <v>1</v>
@@ -3727,13 +3739,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.002531597240710529</v>
+        <v>0.02288811078636584</v>
       </c>
       <c r="BE16">
         <v>2</v>
@@ -3754,16 +3766,16 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BM16">
-        <v>0.01064978146753464</v>
+        <v>0.01124690758762059</v>
       </c>
       <c r="BN16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP16">
         <v>1</v>
@@ -3775,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3783,7 +3795,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.001378686860632442</v>
+        <v>0.001372644191895707</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -3804,10 +3816,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.001337501513390542</v>
+        <v>0.001337496487181415</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -3831,7 +3843,7 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.00161887652314871</v>
+        <v>0.02157155826320517</v>
       </c>
       <c r="U17">
         <v>2</v>
@@ -3852,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AC17">
-        <v>0.01071549627501511</v>
+        <v>0.01088478150065725</v>
       </c>
       <c r="AD17">
         <v>2</v>
@@ -3879,7 +3891,7 @@
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.001969922952980179</v>
+        <v>0.02247511315184148</v>
       </c>
       <c r="AM17">
         <v>2</v>
@@ -3900,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AU17">
-        <v>0.01066987860326255</v>
+        <v>0.01062401088899812</v>
       </c>
       <c r="AV17">
         <v>2</v>
@@ -3927,7 +3939,7 @@
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.002531597240710529</v>
+        <v>0.02288811078636584</v>
       </c>
       <c r="BE17">
         <v>2</v>
@@ -3948,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BM17">
-        <v>0.01064978146753464</v>
+        <v>0.01053630686114052</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -3977,7 +3989,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.001373546053937056</v>
+        <v>0.001367498358991193</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3998,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.001337501513390542</v>
+        <v>0.001337496487181415</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -4025,7 +4037,7 @@
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.001594457691345623</v>
+        <v>0.02145639472193231</v>
       </c>
       <c r="U18">
         <v>2</v>
@@ -4046,10 +4058,10 @@
         <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AC18">
-        <v>0.01071549627501511</v>
+        <v>0.01088478150065725</v>
       </c>
       <c r="AD18">
         <v>2</v>
@@ -4073,7 +4085,7 @@
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.001917328546019685</v>
+        <v>0.02234867083942059</v>
       </c>
       <c r="AM18">
         <v>2</v>
@@ -4094,10 +4106,10 @@
         <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU18">
-        <v>0.01066987860326255</v>
+        <v>0.01062401088899812</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -4121,7 +4133,7 @@
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.002433921913498182</v>
+        <v>0.02275651316366656</v>
       </c>
       <c r="BE18">
         <v>2</v>
@@ -4142,10 +4154,10 @@
         <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BM18">
-        <v>0.01064978146753464</v>
+        <v>0.01053630686114052</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -4171,7 +4183,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001373546053937056</v>
+        <v>0.001367498358991193</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4192,10 +4204,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.001337501513390542</v>
+        <v>0.001337496487181415</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -4219,7 +4231,7 @@
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.001594457691345623</v>
+        <v>0.02145639472193231</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -4240,10 +4252,10 @@
         <v>1</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AC19">
-        <v>0.01071549627501511</v>
+        <v>0.01088478150065725</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4267,7 +4279,7 @@
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.001917328546019685</v>
+        <v>0.02234867083942059</v>
       </c>
       <c r="AM19">
         <v>2</v>
@@ -4288,10 +4300,10 @@
         <v>1</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AU19">
-        <v>0.01066987860326255</v>
+        <v>0.01062401088899812</v>
       </c>
       <c r="AV19">
         <v>2</v>
@@ -4315,7 +4327,7 @@
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.002433921913498182</v>
+        <v>0.02275651316366656</v>
       </c>
       <c r="BE19">
         <v>2</v>
@@ -4336,10 +4348,10 @@
         <v>1</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BM19">
-        <v>0.01064978146753464</v>
+        <v>0.01053630686114052</v>
       </c>
       <c r="BN19">
         <v>2</v>
@@ -4365,7 +4377,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001363264440546282</v>
+        <v>0.001367498358991193</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4383,13 +4395,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.001337501513390542</v>
+        <v>0.001337496487181415</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4413,7 +4425,7 @@
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.00154562002773945</v>
+        <v>0.02145639472193231</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -4431,13 +4443,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC20">
-        <v>0.01071549627501511</v>
+        <v>0.01088478150065725</v>
       </c>
       <c r="AD20">
         <v>2</v>
@@ -4461,7 +4473,7 @@
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.001812139732098696</v>
+        <v>0.02234867083942059</v>
       </c>
       <c r="AM20">
         <v>2</v>
@@ -4479,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AU20">
-        <v>0.01066987860326255</v>
+        <v>0.01062401088899812</v>
       </c>
       <c r="AV20">
         <v>2</v>
@@ -4509,7 +4521,7 @@
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.00223857125907349</v>
+        <v>0.02275651316366656</v>
       </c>
       <c r="BE20">
         <v>2</v>
@@ -4527,13 +4539,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="BM20">
-        <v>0.01064978146753464</v>
+        <v>0.01053630686114052</v>
       </c>
       <c r="BN20">
         <v>2</v>
@@ -4559,13 +4571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0009174109715231659</v>
+        <v>0.001367498358991193</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4577,13 +4589,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.001337501513390542</v>
+        <v>0.001337496487181415</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4607,13 +4619,13 @@
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.001071111404831444</v>
+        <v>0.02145639472193231</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -4625,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AC21">
-        <v>0.01071549627501511</v>
+        <v>0.01088478150065725</v>
       </c>
       <c r="AD21">
         <v>2</v>
@@ -4655,13 +4667,13 @@
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.001295750499666621</v>
+        <v>0.02234867083942059</v>
       </c>
       <c r="AM21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -4673,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AU21">
-        <v>0.01066987860326255</v>
+        <v>0.01062401088899812</v>
       </c>
       <c r="AV21">
         <v>2</v>
@@ -4703,13 +4715,13 @@
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.001655173051402904</v>
+        <v>0.02275651316366656</v>
       </c>
       <c r="BE21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG21">
         <v>0</v>
@@ -4721,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BM21">
-        <v>0.01064978146753464</v>
+        <v>0.01053630686114052</v>
       </c>
       <c r="BN21">
         <v>2</v>
@@ -4753,13 +4765,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0009174109715231659</v>
+        <v>0.001362352526086679</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4771,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.001337501513390542</v>
+        <v>0.001337496487181415</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -4801,13 +4813,13 @@
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.001071111404831444</v>
+        <v>0.02134123118065944</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -4819,13 +4831,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AC22">
-        <v>0.01071549627501511</v>
+        <v>0.01088478150065725</v>
       </c>
       <c r="AD22">
         <v>2</v>
@@ -4849,13 +4861,13 @@
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.001295750499666621</v>
+        <v>0.0222222285269997</v>
       </c>
       <c r="AM22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -4867,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AU22">
-        <v>0.01066987860326255</v>
+        <v>0.01062401088899812</v>
       </c>
       <c r="AV22">
         <v>2</v>
@@ -4897,13 +4909,13 @@
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.001655173051402904</v>
+        <v>0.02262491554096728</v>
       </c>
       <c r="BE22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG22">
         <v>0</v>
@@ -4915,13 +4927,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BM22">
-        <v>0.01064978146753464</v>
+        <v>0.01053630686114052</v>
       </c>
       <c r="BN22">
         <v>2</v>
@@ -4947,7 +4959,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0009174109715231659</v>
+        <v>0.000913380850295633</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4968,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.001337501513390542</v>
+        <v>0.001337496487181415</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -4995,7 +5007,7 @@
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.001071111404831444</v>
+        <v>0.01900198431002266</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -5016,10 +5028,10 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AC23">
-        <v>0.01071549627501511</v>
+        <v>0.01088478150065725</v>
       </c>
       <c r="AD23">
         <v>2</v>
@@ -5043,7 +5055,7 @@
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.001295750499666621</v>
+        <v>0.02086298154944698</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -5064,10 +5076,10 @@
         <v>0</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AU23">
-        <v>0.01066987860326255</v>
+        <v>0.01062401088899812</v>
       </c>
       <c r="AV23">
         <v>2</v>
@@ -5091,7 +5103,7 @@
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.001655173051402904</v>
+        <v>0.02171360774538134</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -5112,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BM23">
-        <v>0.01064978146753464</v>
+        <v>0.01053630686114052</v>
       </c>
       <c r="BN23">
         <v>2</v>
@@ -5141,7 +5153,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0009174109715231659</v>
+        <v>0.000913380850295633</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -5162,10 +5174,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.001337501513390542</v>
+        <v>0.001337496487181415</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -5189,7 +5201,7 @@
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001071111404831444</v>
+        <v>0.01900198431002266</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -5210,10 +5222,10 @@
         <v>0</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AC24">
-        <v>0.01071549627501511</v>
+        <v>0.01088478150065725</v>
       </c>
       <c r="AD24">
         <v>2</v>
@@ -5237,7 +5249,7 @@
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.001295750499666621</v>
+        <v>0.02086298154944698</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -5258,10 +5270,10 @@
         <v>0</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AU24">
-        <v>0.01066987860326255</v>
+        <v>0.01062401088899812</v>
       </c>
       <c r="AV24">
         <v>2</v>
@@ -5285,7 +5297,7 @@
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.001655173051402904</v>
+        <v>0.02171360774538134</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5306,10 +5318,10 @@
         <v>0</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BM24">
-        <v>0.01064978146753464</v>
+        <v>0.01053630686114052</v>
       </c>
       <c r="BN24">
         <v>2</v>
@@ -5335,7 +5347,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0009174109715231659</v>
+        <v>0.000913380850295633</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5356,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.001332360706695156</v>
+        <v>0.001337496487181415</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -5377,13 +5389,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.001071111404831444</v>
+        <v>0.01900198431002266</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -5404,10 +5416,10 @@
         <v>0</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC25">
-        <v>0.01063538907305069</v>
+        <v>0.01088478150065725</v>
       </c>
       <c r="AD25">
         <v>2</v>
@@ -5425,13 +5437,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.001295750499666621</v>
+        <v>0.02086298154944698</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -5452,10 +5464,10 @@
         <v>0</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AU25">
-        <v>0.01058413326209275</v>
+        <v>0.01062401088899812</v>
       </c>
       <c r="AV25">
         <v>2</v>
@@ -5473,13 +5485,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.001655173051402904</v>
+        <v>0.02171360774538134</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -5500,10 +5512,10 @@
         <v>0</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="BM25">
-        <v>0.01056155221071308</v>
+        <v>0.01053630686114052</v>
       </c>
       <c r="BN25">
         <v>2</v>
@@ -5521,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5529,7 +5541,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0009174109715231659</v>
+        <v>0.000913380850295633</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5550,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K26">
-        <v>0.001332360706695156</v>
+        <v>0.001332350654276901</v>
       </c>
       <c r="L26">
         <v>2</v>
@@ -5577,7 +5589,7 @@
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.001071111404831444</v>
+        <v>0.01900198431002266</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -5598,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC26">
-        <v>0.01063538907305069</v>
+        <v>0.01075859108833866</v>
       </c>
       <c r="AD26">
         <v>2</v>
@@ -5625,7 +5637,7 @@
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.001295750499666621</v>
+        <v>0.02086298154944698</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -5646,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AU26">
-        <v>0.01058413326209275</v>
+        <v>0.01051285236657467</v>
       </c>
       <c r="AV26">
         <v>2</v>
@@ -5673,7 +5685,7 @@
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.001655173051402904</v>
+        <v>0.02171360774538134</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5694,10 +5706,10 @@
         <v>0</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BM26">
-        <v>0.01056155221071308</v>
+        <v>0.01043020395937052</v>
       </c>
       <c r="BN26">
         <v>2</v>
@@ -5723,7 +5735,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0009174109715231659</v>
+        <v>0.000913380850295633</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5744,10 +5756,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.001327219899999769</v>
+        <v>0.001332350654276901</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -5765,13 +5777,13 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.001071111404831444</v>
+        <v>0.01900198431002266</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -5792,10 +5804,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AC27">
-        <v>0.01055528187108626</v>
+        <v>0.01075859108833866</v>
       </c>
       <c r="AD27">
         <v>2</v>
@@ -5813,13 +5825,13 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.001295750499666621</v>
+        <v>0.02086298154944698</v>
       </c>
       <c r="AM27">
         <v>1</v>
@@ -5840,10 +5852,10 @@
         <v>0</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AU27">
-        <v>0.01049838792092296</v>
+        <v>0.01051285236657467</v>
       </c>
       <c r="AV27">
         <v>2</v>
@@ -5861,13 +5873,13 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.001655173051402904</v>
+        <v>0.02171360774538134</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5888,10 +5900,10 @@
         <v>0</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BM27">
-        <v>0.01047332295389151</v>
+        <v>0.01043020395937052</v>
       </c>
       <c r="BN27">
         <v>2</v>
@@ -5909,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5917,7 +5929,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0009174109715231659</v>
+        <v>0.000913380850295633</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5938,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.001327219899999769</v>
+        <v>0.001327204821372387</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -5965,7 +5977,7 @@
         <v>33</v>
       </c>
       <c r="T28">
-        <v>0.001071111404831444</v>
+        <v>0.01900198431002266</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5986,10 +5998,10 @@
         <v>0</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC28">
-        <v>0.01055528187108626</v>
+        <v>0.01063240067602007</v>
       </c>
       <c r="AD28">
         <v>2</v>
@@ -6013,7 +6025,7 @@
         <v>33</v>
       </c>
       <c r="AL28">
-        <v>0.001295750499666621</v>
+        <v>0.02086298154944698</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -6034,10 +6046,10 @@
         <v>0</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AU28">
-        <v>0.01049838792092296</v>
+        <v>0.01040169384415122</v>
       </c>
       <c r="AV28">
         <v>2</v>
@@ -6061,7 +6073,7 @@
         <v>33</v>
       </c>
       <c r="BD28">
-        <v>0.001655173051402904</v>
+        <v>0.02171360774538134</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -6082,10 +6094,10 @@
         <v>0</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="BM28">
-        <v>0.01047332295389151</v>
+        <v>0.01032410105760051</v>
       </c>
       <c r="BN28">
         <v>2</v>
@@ -6111,7 +6123,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0009174109715231659</v>
+        <v>0.000913380850295633</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -6132,10 +6144,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.001322079093304383</v>
+        <v>0.001327204821372387</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -6153,13 +6165,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T29">
-        <v>0.001071111404831444</v>
+        <v>0.01900198431002266</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -6180,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC29">
-        <v>0.01047517466912184</v>
+        <v>0.01063240067602007</v>
       </c>
       <c r="AD29">
         <v>2</v>
@@ -6201,13 +6213,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL29">
-        <v>0.001295750499666621</v>
+        <v>0.02086298154944698</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6228,10 +6240,10 @@
         <v>0</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AU29">
-        <v>0.01041264257975316</v>
+        <v>0.01040169384415122</v>
       </c>
       <c r="AV29">
         <v>2</v>
@@ -6249,13 +6261,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD29">
-        <v>0.001655173051402904</v>
+        <v>0.02171360774538134</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6276,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="BM29">
-        <v>0.01038509369706995</v>
+        <v>0.01032410105760051</v>
       </c>
       <c r="BN29">
         <v>2</v>
@@ -6297,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6305,7 +6317,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0009174109715231659</v>
+        <v>0.000913380850295633</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6326,10 +6338,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>0.001322079093304383</v>
+        <v>0.001322058988467873</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -6353,7 +6365,7 @@
         <v>35</v>
       </c>
       <c r="T30">
-        <v>0.001071111404831444</v>
+        <v>0.01900198431002266</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6374,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC30">
-        <v>0.01047517466912184</v>
+        <v>0.01050621026370148</v>
       </c>
       <c r="AD30">
         <v>2</v>
@@ -6401,7 +6413,7 @@
         <v>35</v>
       </c>
       <c r="AL30">
-        <v>0.001295750499666621</v>
+        <v>0.02086298154944698</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6422,10 +6434,10 @@
         <v>0</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AU30">
-        <v>0.01041264257975316</v>
+        <v>0.01029053532172777</v>
       </c>
       <c r="AV30">
         <v>2</v>
@@ -6449,7 +6461,7 @@
         <v>35</v>
       </c>
       <c r="BD30">
-        <v>0.001655173051402904</v>
+        <v>0.02171360774538134</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6470,10 +6482,10 @@
         <v>0</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BM30">
-        <v>0.01038509369706995</v>
+        <v>0.01021799815583051</v>
       </c>
       <c r="BN30">
         <v>2</v>
@@ -6499,7 +6511,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0009174109715231659</v>
+        <v>0.000913380850295633</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6520,34 +6532,34 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.001147291665661237</v>
+        <v>0.001229293973522554</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T31">
-        <v>0.001071111404831444</v>
+        <v>0.01900198431002266</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6568,10 +6580,10 @@
         <v>0</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC31">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6595,7 +6607,7 @@
         <v>36</v>
       </c>
       <c r="AL31">
-        <v>0.001295750499666621</v>
+        <v>0.02086298154944698</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6616,10 +6628,10 @@
         <v>0</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AU31">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6643,7 +6655,7 @@
         <v>36</v>
       </c>
       <c r="BD31">
-        <v>0.001655173051402904</v>
+        <v>0.02171360774538134</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6664,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BM31">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN31">
         <v>1</v>
@@ -6693,7 +6705,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0009122701648277793</v>
+        <v>0.000913380850295633</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6711,13 +6723,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6741,7 +6753,7 @@
         <v>37</v>
       </c>
       <c r="T32">
-        <v>0.001046692573028358</v>
+        <v>0.01900198431002266</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6759,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC32">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6789,7 +6801,7 @@
         <v>37</v>
       </c>
       <c r="AL32">
-        <v>0.001243156092706127</v>
+        <v>0.02086298154944698</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6807,13 +6819,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AU32">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6837,7 +6849,7 @@
         <v>37</v>
       </c>
       <c r="BD32">
-        <v>0.001557497724190557</v>
+        <v>0.02171360774538134</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6855,13 +6867,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BM32">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6887,7 +6899,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0009122701648277793</v>
+        <v>0.000913380850295633</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6905,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K33">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6935,7 +6947,7 @@
         <v>38</v>
       </c>
       <c r="T33">
-        <v>0.001046692573028358</v>
+        <v>0.01900198431002266</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6953,13 +6965,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC33">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6983,7 +6995,7 @@
         <v>38</v>
       </c>
       <c r="AL33">
-        <v>0.001243156092706127</v>
+        <v>0.02086298154944698</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -7001,13 +7013,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AU33">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -7031,7 +7043,7 @@
         <v>38</v>
       </c>
       <c r="BD33">
-        <v>0.001557497724190557</v>
+        <v>0.02171360774538134</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -7049,13 +7061,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BM33">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -7081,7 +7093,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0009122701648277793</v>
+        <v>0.000913380850295633</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -7099,13 +7111,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K34">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -7129,7 +7141,7 @@
         <v>39</v>
       </c>
       <c r="T34">
-        <v>0.001046692573028358</v>
+        <v>0.01900198431002266</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -7147,13 +7159,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC34">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7177,7 +7189,7 @@
         <v>39</v>
       </c>
       <c r="AL34">
-        <v>0.001243156092706127</v>
+        <v>0.02086298154944698</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -7195,13 +7207,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AU34">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV34">
         <v>1</v>
@@ -7225,7 +7237,7 @@
         <v>39</v>
       </c>
       <c r="BD34">
-        <v>0.001557497724190557</v>
+        <v>0.02171360774538134</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7243,13 +7255,13 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BM34">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7275,7 +7287,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0009122701648277793</v>
+        <v>0.0009082350173911191</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -7296,10 +7308,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K35">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7323,7 +7335,7 @@
         <v>40</v>
       </c>
       <c r="T35">
-        <v>0.001046692573028358</v>
+        <v>0.0188868207687498</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -7344,10 +7356,10 @@
         <v>1</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC35">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7371,7 +7383,7 @@
         <v>40</v>
       </c>
       <c r="AL35">
-        <v>0.001243156092706127</v>
+        <v>0.02073653923702608</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -7392,10 +7404,10 @@
         <v>1</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU35">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV35">
         <v>1</v>
@@ -7419,7 +7431,7 @@
         <v>40</v>
       </c>
       <c r="BD35">
-        <v>0.001557497724190557</v>
+        <v>0.02158201012268205</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -7440,10 +7452,10 @@
         <v>1</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM35">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7469,7 +7481,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0009122701648277793</v>
+        <v>0.0009082350173911191</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7490,10 +7502,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7517,7 +7529,7 @@
         <v>41</v>
       </c>
       <c r="T36">
-        <v>0.001046692573028358</v>
+        <v>0.0188868207687498</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -7538,10 +7550,10 @@
         <v>1</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC36">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -7565,7 +7577,7 @@
         <v>41</v>
       </c>
       <c r="AL36">
-        <v>0.001243156092706127</v>
+        <v>0.02073653923702608</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -7586,10 +7598,10 @@
         <v>1</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AU36">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7613,7 +7625,7 @@
         <v>41</v>
       </c>
       <c r="BD36">
-        <v>0.001557497724190557</v>
+        <v>0.02158201012268205</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7634,10 +7646,10 @@
         <v>1</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BM36">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN36">
         <v>1</v>
@@ -7663,7 +7675,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0009122701648277793</v>
+        <v>0.0009082350173911191</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7684,10 +7696,10 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7711,7 +7723,7 @@
         <v>42</v>
       </c>
       <c r="T37">
-        <v>0.001046692573028358</v>
+        <v>0.0188868207687498</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -7732,10 +7744,10 @@
         <v>1</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC37">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7759,7 +7771,7 @@
         <v>42</v>
       </c>
       <c r="AL37">
-        <v>0.001243156092706127</v>
+        <v>0.02073653923702608</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -7780,10 +7792,10 @@
         <v>1</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AU37">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV37">
         <v>1</v>
@@ -7807,7 +7819,7 @@
         <v>42</v>
       </c>
       <c r="BD37">
-        <v>0.001557497724190557</v>
+        <v>0.02158201012268205</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -7828,10 +7840,10 @@
         <v>1</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BM37">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN37">
         <v>1</v>
@@ -7857,7 +7869,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0009071293581323927</v>
+        <v>0.0009082350173911191</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7875,13 +7887,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7905,7 +7917,7 @@
         <v>43</v>
       </c>
       <c r="T38">
-        <v>0.001022273741225271</v>
+        <v>0.0188868207687498</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -7923,13 +7935,13 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC38">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -7953,7 +7965,7 @@
         <v>43</v>
       </c>
       <c r="AL38">
-        <v>0.001190561685745633</v>
+        <v>0.02073653923702608</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -7971,13 +7983,13 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU38">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV38">
         <v>1</v>
@@ -8001,7 +8013,7 @@
         <v>43</v>
       </c>
       <c r="BD38">
-        <v>0.001459822396978211</v>
+        <v>0.02158201012268205</v>
       </c>
       <c r="BE38">
         <v>1</v>
@@ -8019,13 +8031,13 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BM38">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN38">
         <v>1</v>
@@ -8051,7 +8063,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0009071293581323927</v>
+        <v>0.0009030891844866052</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -8072,10 +8084,10 @@
         <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K39">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -8099,7 +8111,7 @@
         <v>44</v>
       </c>
       <c r="T39">
-        <v>0.001022273741225271</v>
+        <v>0.01877165722747694</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -8120,10 +8132,10 @@
         <v>2</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC39">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD39">
         <v>1</v>
@@ -8147,7 +8159,7 @@
         <v>44</v>
       </c>
       <c r="AL39">
-        <v>0.001190561685745633</v>
+        <v>0.02061009692460519</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -8168,10 +8180,10 @@
         <v>2</v>
       </c>
       <c r="AT39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AU39">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV39">
         <v>1</v>
@@ -8195,7 +8207,7 @@
         <v>44</v>
       </c>
       <c r="BD39">
-        <v>0.001459822396978211</v>
+        <v>0.02145041249998277</v>
       </c>
       <c r="BE39">
         <v>1</v>
@@ -8216,10 +8228,10 @@
         <v>2</v>
       </c>
       <c r="BL39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BM39">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN39">
         <v>1</v>
@@ -8245,7 +8257,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.000901988551437006</v>
+        <v>0.0009030891844866052</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -8263,13 +8275,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K40">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -8293,7 +8305,7 @@
         <v>45</v>
       </c>
       <c r="T40">
-        <v>0.000997854909422185</v>
+        <v>0.01877165722747694</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -8311,13 +8323,13 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC40">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD40">
         <v>1</v>
@@ -8341,7 +8353,7 @@
         <v>45</v>
       </c>
       <c r="AL40">
-        <v>0.001137967278785139</v>
+        <v>0.02061009692460519</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -8359,13 +8371,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AU40">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV40">
         <v>1</v>
@@ -8389,7 +8401,7 @@
         <v>45</v>
       </c>
       <c r="BD40">
-        <v>0.001362147069765865</v>
+        <v>0.02145041249998277</v>
       </c>
       <c r="BE40">
         <v>1</v>
@@ -8407,13 +8419,13 @@
         <v>0</v>
       </c>
       <c r="BJ40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BL40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BM40">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN40">
         <v>1</v>
@@ -8439,7 +8451,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.000901988551437006</v>
+        <v>0.0008979433515820912</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -8460,10 +8472,10 @@
         <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K41">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -8487,7 +8499,7 @@
         <v>46</v>
       </c>
       <c r="T41">
-        <v>0.000997854909422185</v>
+        <v>0.01865649368620407</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -8508,10 +8520,10 @@
         <v>3</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC41">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -8535,7 +8547,7 @@
         <v>46</v>
       </c>
       <c r="AL41">
-        <v>0.001137967278785139</v>
+        <v>0.0204836546121843</v>
       </c>
       <c r="AM41">
         <v>1</v>
@@ -8556,10 +8568,10 @@
         <v>3</v>
       </c>
       <c r="AT41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AU41">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV41">
         <v>1</v>
@@ -8583,7 +8595,7 @@
         <v>46</v>
       </c>
       <c r="BD41">
-        <v>0.001362147069765865</v>
+        <v>0.02131881487728349</v>
       </c>
       <c r="BE41">
         <v>1</v>
@@ -8604,10 +8616,10 @@
         <v>3</v>
       </c>
       <c r="BL41" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BM41">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN41">
         <v>1</v>
@@ -8633,7 +8645,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.000901988551437006</v>
+        <v>0.0008927975186775773</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -8651,13 +8663,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K42">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -8681,7 +8693,7 @@
         <v>47</v>
       </c>
       <c r="T42">
-        <v>0.000997854909422185</v>
+        <v>0.01854133014493121</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -8699,13 +8711,13 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC42">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -8729,7 +8741,7 @@
         <v>47</v>
       </c>
       <c r="AL42">
-        <v>0.001137967278785139</v>
+        <v>0.02035721229976342</v>
       </c>
       <c r="AM42">
         <v>1</v>
@@ -8747,13 +8759,13 @@
         <v>0</v>
       </c>
       <c r="AR42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AU42">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV42">
         <v>1</v>
@@ -8777,7 +8789,7 @@
         <v>47</v>
       </c>
       <c r="BD42">
-        <v>0.001362147069765865</v>
+        <v>0.02118721725458421</v>
       </c>
       <c r="BE42">
         <v>1</v>
@@ -8795,13 +8807,13 @@
         <v>0</v>
       </c>
       <c r="BJ42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BM42">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN42">
         <v>1</v>
@@ -8827,7 +8839,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0008814253246554594</v>
+        <v>0.0008773600199640356</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -8848,10 +8860,10 @@
         <v>7</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K43">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L43">
         <v>1</v>
@@ -8875,7 +8887,7 @@
         <v>48</v>
       </c>
       <c r="T43">
-        <v>0.0009001795822098388</v>
+        <v>0.01819583952111261</v>
       </c>
       <c r="U43">
         <v>1</v>
@@ -8896,10 +8908,10 @@
         <v>7</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC43">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD43">
         <v>1</v>
@@ -8923,7 +8935,7 @@
         <v>48</v>
       </c>
       <c r="AL43">
-        <v>0.0009275896509431627</v>
+        <v>0.01997788536250074</v>
       </c>
       <c r="AM43">
         <v>1</v>
@@ -8944,10 +8956,10 @@
         <v>7</v>
       </c>
       <c r="AT43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AU43">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV43">
         <v>1</v>
@@ -8971,7 +8983,7 @@
         <v>48</v>
       </c>
       <c r="BD43">
-        <v>0.0009714457609164806</v>
+        <v>0.02079242438648637</v>
       </c>
       <c r="BE43">
         <v>1</v>
@@ -8992,10 +9004,10 @@
         <v>7</v>
       </c>
       <c r="BL43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BM43">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN43">
         <v>1</v>
@@ -9021,7 +9033,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0008814253246554594</v>
+        <v>0.0008773600199640356</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -9042,10 +9054,10 @@
         <v>7</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -9069,7 +9081,7 @@
         <v>49</v>
       </c>
       <c r="T44">
-        <v>0.0009001795822098388</v>
+        <v>0.01819583952111261</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -9090,10 +9102,10 @@
         <v>7</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC44">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD44">
         <v>1</v>
@@ -9117,7 +9129,7 @@
         <v>49</v>
       </c>
       <c r="AL44">
-        <v>0.0009275896509431627</v>
+        <v>0.01997788536250074</v>
       </c>
       <c r="AM44">
         <v>1</v>
@@ -9138,10 +9150,10 @@
         <v>7</v>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AU44">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV44">
         <v>1</v>
@@ -9165,7 +9177,7 @@
         <v>49</v>
       </c>
       <c r="BD44">
-        <v>0.0009714457609164806</v>
+        <v>0.02079242438648637</v>
       </c>
       <c r="BE44">
         <v>1</v>
@@ -9186,10 +9198,10 @@
         <v>7</v>
       </c>
       <c r="BL44" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BM44">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN44">
         <v>1</v>
@@ -9211,11 +9223,35 @@
       </c>
     </row>
     <row r="45" spans="1:71">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.0008168942382082023</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>0.6</v>
+      </c>
+      <c r="F45">
+        <v>0.4</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>108</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K45">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -9235,11 +9271,35 @@
       <c r="Q45">
         <v>0</v>
       </c>
+      <c r="S45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T45">
+        <v>0.009133895805735788</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>5</v>
+      </c>
+      <c r="W45">
+        <v>0.6</v>
+      </c>
+      <c r="X45">
+        <v>0.4</v>
+      </c>
+      <c r="Y45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>108</v>
+      </c>
       <c r="AB45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC45">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD45">
         <v>1</v>
@@ -9259,11 +9319,35 @@
       <c r="AI45">
         <v>0</v>
       </c>
+      <c r="AK45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL45">
+        <v>0.008819343410385278</v>
+      </c>
+      <c r="AM45">
+        <v>2</v>
+      </c>
+      <c r="AN45">
+        <v>5</v>
+      </c>
+      <c r="AO45">
+        <v>0.6</v>
+      </c>
+      <c r="AP45">
+        <v>0.4</v>
+      </c>
+      <c r="AQ45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>108</v>
+      </c>
       <c r="AT45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AU45">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV45">
         <v>1</v>
@@ -9283,11 +9367,35 @@
       <c r="BA45">
         <v>0</v>
       </c>
+      <c r="BC45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD45">
+        <v>0.008675567534843512</v>
+      </c>
+      <c r="BE45">
+        <v>2</v>
+      </c>
+      <c r="BF45">
+        <v>5</v>
+      </c>
+      <c r="BG45">
+        <v>0.6</v>
+      </c>
+      <c r="BH45">
+        <v>0.4</v>
+      </c>
+      <c r="BI45" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ45">
+        <v>108</v>
+      </c>
       <c r="BL45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BM45">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN45">
         <v>1</v>
@@ -9309,11 +9417,35 @@
       </c>
     </row>
     <row r="46" spans="1:71">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>6.431842105083466E-05</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>165</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K46">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -9333,11 +9465,35 @@
       <c r="Q46">
         <v>0</v>
       </c>
+      <c r="S46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>165</v>
+      </c>
       <c r="AB46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC46">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD46">
         <v>1</v>
@@ -9357,11 +9513,35 @@
       <c r="AI46">
         <v>0</v>
       </c>
+      <c r="AK46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>1</v>
+      </c>
+      <c r="AQ46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>165</v>
+      </c>
       <c r="AT46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AU46">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV46">
         <v>1</v>
@@ -9381,11 +9561,35 @@
       <c r="BA46">
         <v>0</v>
       </c>
+      <c r="BC46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>1</v>
+      </c>
+      <c r="BF46">
+        <v>1</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>1</v>
+      </c>
+      <c r="BI46" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>165</v>
+      </c>
       <c r="BL46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BM46">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN46">
         <v>1</v>
@@ -9408,10 +9612,10 @@
     </row>
     <row r="47" spans="1:71">
       <c r="J47" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K47">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -9432,10 +9636,10 @@
         <v>0</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC47">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD47">
         <v>1</v>
@@ -9456,10 +9660,10 @@
         <v>0</v>
       </c>
       <c r="AT47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AU47">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV47">
         <v>1</v>
@@ -9480,10 +9684,10 @@
         <v>0</v>
       </c>
       <c r="BL47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BM47">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN47">
         <v>1</v>
@@ -9506,10 +9710,10 @@
     </row>
     <row r="48" spans="1:71">
       <c r="J48" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K48">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -9530,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AC48">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD48">
         <v>1</v>
@@ -9554,10 +9758,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AU48">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV48">
         <v>1</v>
@@ -9578,10 +9782,10 @@
         <v>0</v>
       </c>
       <c r="BL48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BM48">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN48">
         <v>1</v>
@@ -9604,10 +9808,10 @@
     </row>
     <row r="49" spans="10:71">
       <c r="J49" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K49">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -9628,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC49">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD49">
         <v>1</v>
@@ -9652,10 +9856,10 @@
         <v>0</v>
       </c>
       <c r="AT49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AU49">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV49">
         <v>1</v>
@@ -9676,10 +9880,10 @@
         <v>0</v>
       </c>
       <c r="BL49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BM49">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN49">
         <v>1</v>
@@ -9702,10 +9906,10 @@
     </row>
     <row r="50" spans="10:71">
       <c r="J50" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K50">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -9726,10 +9930,10 @@
         <v>0</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC50">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD50">
         <v>1</v>
@@ -9750,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="AT50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AU50">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV50">
         <v>1</v>
@@ -9774,10 +9978,10 @@
         <v>0</v>
       </c>
       <c r="BL50" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BM50">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN50">
         <v>1</v>
@@ -9800,10 +10004,10 @@
     </row>
     <row r="51" spans="10:71">
       <c r="J51" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K51">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -9824,10 +10028,10 @@
         <v>0</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC51">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD51">
         <v>1</v>
@@ -9848,10 +10052,10 @@
         <v>0</v>
       </c>
       <c r="AT51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AU51">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV51">
         <v>1</v>
@@ -9872,10 +10076,10 @@
         <v>0</v>
       </c>
       <c r="BL51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BM51">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN51">
         <v>1</v>
@@ -9898,10 +10102,10 @@
     </row>
     <row r="52" spans="10:71">
       <c r="J52" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K52">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -9922,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AC52">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD52">
         <v>1</v>
@@ -9946,10 +10150,10 @@
         <v>0</v>
       </c>
       <c r="AT52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AU52">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV52">
         <v>1</v>
@@ -9970,10 +10174,10 @@
         <v>0</v>
       </c>
       <c r="BL52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BM52">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN52">
         <v>1</v>
@@ -9996,10 +10200,10 @@
     </row>
     <row r="53" spans="10:71">
       <c r="J53" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K53">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -10020,10 +10224,10 @@
         <v>0</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC53">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD53">
         <v>1</v>
@@ -10044,10 +10248,10 @@
         <v>0</v>
       </c>
       <c r="AT53" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AU53">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV53">
         <v>1</v>
@@ -10068,10 +10272,10 @@
         <v>0</v>
       </c>
       <c r="BL53" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BM53">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN53">
         <v>1</v>
@@ -10094,10 +10298,10 @@
     </row>
     <row r="54" spans="10:71">
       <c r="J54" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K54">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -10118,10 +10322,10 @@
         <v>0</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AC54">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD54">
         <v>1</v>
@@ -10142,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="AT54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AU54">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV54">
         <v>1</v>
@@ -10166,10 +10370,10 @@
         <v>0</v>
       </c>
       <c r="BL54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BM54">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN54">
         <v>1</v>
@@ -10192,10 +10396,10 @@
     </row>
     <row r="55" spans="10:71">
       <c r="J55" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K55">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -10216,10 +10420,10 @@
         <v>0</v>
       </c>
       <c r="AB55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AC55">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD55">
         <v>1</v>
@@ -10240,10 +10444,10 @@
         <v>0</v>
       </c>
       <c r="AT55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AU55">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV55">
         <v>1</v>
@@ -10264,10 +10468,10 @@
         <v>0</v>
       </c>
       <c r="BL55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BM55">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN55">
         <v>1</v>
@@ -10290,10 +10494,10 @@
     </row>
     <row r="56" spans="10:71">
       <c r="J56" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K56">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -10314,10 +10518,10 @@
         <v>0</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC56">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD56">
         <v>1</v>
@@ -10338,10 +10542,10 @@
         <v>0</v>
       </c>
       <c r="AT56" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AU56">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV56">
         <v>1</v>
@@ -10362,10 +10566,10 @@
         <v>0</v>
       </c>
       <c r="BL56" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BM56">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN56">
         <v>1</v>
@@ -10388,10 +10592,10 @@
     </row>
     <row r="57" spans="10:71">
       <c r="J57" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K57">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -10412,10 +10616,10 @@
         <v>0</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AC57">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD57">
         <v>1</v>
@@ -10436,10 +10640,10 @@
         <v>0</v>
       </c>
       <c r="AT57" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AU57">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV57">
         <v>1</v>
@@ -10460,10 +10664,10 @@
         <v>0</v>
       </c>
       <c r="BL57" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BM57">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN57">
         <v>1</v>
@@ -10486,10 +10690,10 @@
     </row>
     <row r="58" spans="10:71">
       <c r="J58" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K58">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -10510,10 +10714,10 @@
         <v>0</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC58">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD58">
         <v>1</v>
@@ -10534,10 +10738,10 @@
         <v>0</v>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AU58">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV58">
         <v>1</v>
@@ -10558,10 +10762,10 @@
         <v>0</v>
       </c>
       <c r="BL58" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BM58">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN58">
         <v>1</v>
@@ -10584,10 +10788,10 @@
     </row>
     <row r="59" spans="10:71">
       <c r="J59" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K59">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -10608,10 +10812,10 @@
         <v>0</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC59">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD59">
         <v>1</v>
@@ -10632,10 +10836,10 @@
         <v>0</v>
       </c>
       <c r="AT59" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AU59">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV59">
         <v>1</v>
@@ -10656,10 +10860,10 @@
         <v>0</v>
       </c>
       <c r="BL59" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BM59">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN59">
         <v>1</v>
@@ -10682,10 +10886,10 @@
     </row>
     <row r="60" spans="10:71">
       <c r="J60" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K60">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -10706,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC60">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD60">
         <v>1</v>
@@ -10730,10 +10934,10 @@
         <v>0</v>
       </c>
       <c r="AT60" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AU60">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV60">
         <v>1</v>
@@ -10754,10 +10958,10 @@
         <v>0</v>
       </c>
       <c r="BL60" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BM60">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN60">
         <v>1</v>
@@ -10780,10 +10984,10 @@
     </row>
     <row r="61" spans="10:71">
       <c r="J61" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K61">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -10804,10 +11008,10 @@
         <v>0</v>
       </c>
       <c r="AB61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC61">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD61">
         <v>1</v>
@@ -10828,10 +11032,10 @@
         <v>0</v>
       </c>
       <c r="AT61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AU61">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV61">
         <v>1</v>
@@ -10852,10 +11056,10 @@
         <v>0</v>
       </c>
       <c r="BL61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BM61">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN61">
         <v>1</v>
@@ -10878,10 +11082,10 @@
     </row>
     <row r="62" spans="10:71">
       <c r="J62" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K62">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -10902,10 +11106,10 @@
         <v>0</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC62">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD62">
         <v>1</v>
@@ -10926,10 +11130,10 @@
         <v>0</v>
       </c>
       <c r="AT62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AU62">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV62">
         <v>1</v>
@@ -10950,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="BL62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BM62">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN62">
         <v>1</v>
@@ -10976,10 +11180,10 @@
     </row>
     <row r="63" spans="10:71">
       <c r="J63" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K63">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -11000,10 +11204,10 @@
         <v>0</v>
       </c>
       <c r="AB63" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC63">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD63">
         <v>1</v>
@@ -11024,10 +11228,10 @@
         <v>0</v>
       </c>
       <c r="AT63" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AU63">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV63">
         <v>1</v>
@@ -11048,10 +11252,10 @@
         <v>0</v>
       </c>
       <c r="BL63" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BM63">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN63">
         <v>1</v>
@@ -11074,10 +11278,10 @@
     </row>
     <row r="64" spans="10:71">
       <c r="J64" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K64">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -11098,10 +11302,10 @@
         <v>0</v>
       </c>
       <c r="AB64" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC64">
-        <v>0.008972006620015578</v>
+        <v>0.008140998470906999</v>
       </c>
       <c r="AD64">
         <v>1</v>
@@ -11122,10 +11326,10 @@
         <v>0</v>
       </c>
       <c r="AT64" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AU64">
-        <v>0.009603478211017197</v>
+        <v>0.009242901356263608</v>
       </c>
       <c r="AV64">
         <v>1</v>
@@ -11146,10 +11350,10 @@
         <v>0</v>
       </c>
       <c r="BL64" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BM64">
-        <v>0.009881676764014953</v>
+        <v>0.009613500331120441</v>
       </c>
       <c r="BN64">
         <v>1</v>
@@ -11172,10 +11376,10 @@
     </row>
     <row r="65" spans="10:71">
       <c r="J65" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K65">
-        <v>0.0008899540733618994</v>
+        <v>0.0008899490471527722</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -11196,10 +11400,10 @@
         <v>0</v>
       </c>
       <c r="AB65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AC65">
-        <v>0.008972006620015578</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD65">
         <v>1</v>
@@ -11217,13 +11421,13 @@
         <v>0</v>
       </c>
       <c r="AI65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AU65">
-        <v>0.009603478211017197</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV65">
         <v>1</v>
@@ -11241,13 +11445,13 @@
         <v>0</v>
       </c>
       <c r="BA65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL65" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BM65">
-        <v>0.009881676764014953</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN65">
         <v>1</v>
@@ -11265,15 +11469,15 @@
         <v>0</v>
       </c>
       <c r="BS65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="10:71">
       <c r="J66" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K66">
-        <v>0.0008899540733618994</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -11291,13 +11495,13 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC66">
-        <v>0.008972006620015578</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD66">
         <v>1</v>
@@ -11315,13 +11519,13 @@
         <v>0</v>
       </c>
       <c r="AI66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AU66">
-        <v>0.009603478211017197</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV66">
         <v>1</v>
@@ -11339,13 +11543,13 @@
         <v>0</v>
       </c>
       <c r="BA66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL66" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BM66">
-        <v>0.009881676764014953</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN66">
         <v>1</v>
@@ -11363,15 +11567,15 @@
         <v>0</v>
       </c>
       <c r="BS66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="10:71">
       <c r="J67" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K67">
-        <v>0.0008899540733618994</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -11389,13 +11593,13 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC67">
-        <v>0.008891899418051154</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD67">
         <v>1</v>
@@ -11416,10 +11620,10 @@
         <v>1</v>
       </c>
       <c r="AT67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AU67">
-        <v>0.0095177328698474</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV67">
         <v>1</v>
@@ -11440,10 +11644,10 @@
         <v>1</v>
       </c>
       <c r="BL67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BM67">
-        <v>0.00979344750719339</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN67">
         <v>1</v>
@@ -11466,10 +11670,10 @@
     </row>
     <row r="68" spans="10:71">
       <c r="J68" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K68">
-        <v>0.0008848132666665128</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -11490,10 +11694,10 @@
         <v>1</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC68">
-        <v>0.008891899418051154</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD68">
         <v>1</v>
@@ -11514,10 +11718,10 @@
         <v>1</v>
       </c>
       <c r="AT68" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AU68">
-        <v>0.0095177328698474</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV68">
         <v>1</v>
@@ -11538,10 +11742,10 @@
         <v>1</v>
       </c>
       <c r="BL68" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BM68">
-        <v>0.00979344750719339</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN68">
         <v>1</v>
@@ -11564,10 +11768,10 @@
     </row>
     <row r="69" spans="10:71">
       <c r="J69" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K69">
-        <v>0.0008848132666665128</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -11588,10 +11792,10 @@
         <v>1</v>
       </c>
       <c r="AB69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AC69">
-        <v>0.008891899418051154</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD69">
         <v>1</v>
@@ -11612,10 +11816,10 @@
         <v>1</v>
       </c>
       <c r="AT69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AU69">
-        <v>0.0095177328698474</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV69">
         <v>1</v>
@@ -11636,10 +11840,10 @@
         <v>1</v>
       </c>
       <c r="BL69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BM69">
-        <v>0.00979344750719339</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN69">
         <v>1</v>
@@ -11662,10 +11866,10 @@
     </row>
     <row r="70" spans="10:71">
       <c r="J70" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K70">
-        <v>0.0008848132666665128</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -11686,10 +11890,10 @@
         <v>1</v>
       </c>
       <c r="AB70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC70">
-        <v>0.008891899418051154</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD70">
         <v>1</v>
@@ -11710,10 +11914,10 @@
         <v>1</v>
       </c>
       <c r="AT70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AU70">
-        <v>0.0095177328698474</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV70">
         <v>1</v>
@@ -11734,10 +11938,10 @@
         <v>1</v>
       </c>
       <c r="BL70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BM70">
-        <v>0.00979344750719339</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN70">
         <v>1</v>
@@ -11760,10 +11964,10 @@
     </row>
     <row r="71" spans="10:71">
       <c r="J71" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K71">
-        <v>0.0008848132666665128</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -11784,10 +11988,10 @@
         <v>1</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AC71">
-        <v>0.008891899418051154</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD71">
         <v>1</v>
@@ -11808,10 +12012,10 @@
         <v>1</v>
       </c>
       <c r="AT71" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AU71">
-        <v>0.0095177328698474</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV71">
         <v>1</v>
@@ -11832,10 +12036,10 @@
         <v>1</v>
       </c>
       <c r="BL71" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BM71">
-        <v>0.00979344750719339</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN71">
         <v>1</v>
@@ -11858,10 +12062,10 @@
     </row>
     <row r="72" spans="10:71">
       <c r="J72" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K72">
-        <v>0.0008848132666665128</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -11882,10 +12086,10 @@
         <v>1</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC72">
-        <v>0.008891899418051154</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD72">
         <v>1</v>
@@ -11906,10 +12110,10 @@
         <v>1</v>
       </c>
       <c r="AT72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AU72">
-        <v>0.0095177328698474</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV72">
         <v>1</v>
@@ -11930,10 +12134,10 @@
         <v>1</v>
       </c>
       <c r="BL72" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BM72">
-        <v>0.00979344750719339</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN72">
         <v>1</v>
@@ -11956,10 +12160,10 @@
     </row>
     <row r="73" spans="10:71">
       <c r="J73" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K73">
-        <v>0.0008848132666665128</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -11980,10 +12184,10 @@
         <v>1</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AC73">
-        <v>0.008891899418051154</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD73">
         <v>1</v>
@@ -12004,10 +12208,10 @@
         <v>1</v>
       </c>
       <c r="AT73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AU73">
-        <v>0.0095177328698474</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV73">
         <v>1</v>
@@ -12028,10 +12232,10 @@
         <v>1</v>
       </c>
       <c r="BL73" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BM73">
-        <v>0.00979344750719339</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN73">
         <v>1</v>
@@ -12054,10 +12258,10 @@
     </row>
     <row r="74" spans="10:71">
       <c r="J74" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K74">
-        <v>0.0008848132666665128</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -12078,10 +12282,10 @@
         <v>1</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC74">
-        <v>0.008891899418051154</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD74">
         <v>1</v>
@@ -12102,10 +12306,10 @@
         <v>1</v>
       </c>
       <c r="AT74" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AU74">
-        <v>0.0095177328698474</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV74">
         <v>1</v>
@@ -12126,10 +12330,10 @@
         <v>1</v>
       </c>
       <c r="BL74" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BM74">
-        <v>0.00979344750719339</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN74">
         <v>1</v>
@@ -12152,10 +12356,10 @@
     </row>
     <row r="75" spans="10:71">
       <c r="J75" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K75">
-        <v>0.0008848132666665128</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -12176,10 +12380,10 @@
         <v>1</v>
       </c>
       <c r="AB75" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC75">
-        <v>0.008891899418051154</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD75">
         <v>1</v>
@@ -12200,10 +12404,10 @@
         <v>1</v>
       </c>
       <c r="AT75" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AU75">
-        <v>0.0095177328698474</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV75">
         <v>1</v>
@@ -12224,10 +12428,10 @@
         <v>1</v>
       </c>
       <c r="BL75" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BM75">
-        <v>0.00979344750719339</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN75">
         <v>1</v>
@@ -12250,10 +12454,10 @@
     </row>
     <row r="76" spans="10:71">
       <c r="J76" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K76">
-        <v>0.0008848132666665128</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -12274,10 +12478,10 @@
         <v>1</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC76">
-        <v>0.008891899418051154</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD76">
         <v>1</v>
@@ -12298,10 +12502,10 @@
         <v>1</v>
       </c>
       <c r="AT76" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU76">
-        <v>0.0095177328698474</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV76">
         <v>1</v>
@@ -12322,10 +12526,10 @@
         <v>1</v>
       </c>
       <c r="BL76" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BM76">
-        <v>0.00979344750719339</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN76">
         <v>1</v>
@@ -12348,10 +12552,10 @@
     </row>
     <row r="77" spans="10:71">
       <c r="J77" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K77">
-        <v>0.0008848132666665128</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L77">
         <v>1</v>
@@ -12372,10 +12576,10 @@
         <v>1</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC77">
-        <v>0.008891899418051154</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD77">
         <v>1</v>
@@ -12396,10 +12600,10 @@
         <v>1</v>
       </c>
       <c r="AT77" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AU77">
-        <v>0.0095177328698474</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV77">
         <v>1</v>
@@ -12420,10 +12624,10 @@
         <v>1</v>
       </c>
       <c r="BL77" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BM77">
-        <v>0.00979344750719339</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN77">
         <v>1</v>
@@ -12446,10 +12650,10 @@
     </row>
     <row r="78" spans="10:71">
       <c r="J78" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K78">
-        <v>0.0008848132666665128</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -12470,10 +12674,10 @@
         <v>1</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AC78">
-        <v>0.008891899418051154</v>
+        <v>0.008014808058588412</v>
       </c>
       <c r="AD78">
         <v>1</v>
@@ -12494,10 +12698,10 @@
         <v>1</v>
       </c>
       <c r="AT78" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU78">
-        <v>0.0095177328698474</v>
+        <v>0.009131742833840158</v>
       </c>
       <c r="AV78">
         <v>1</v>
@@ -12518,10 +12722,10 @@
         <v>1</v>
       </c>
       <c r="BL78" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BM78">
-        <v>0.00979344750719339</v>
+        <v>0.009507397429350434</v>
       </c>
       <c r="BN78">
         <v>1</v>
@@ -12544,10 +12748,10 @@
     </row>
     <row r="79" spans="10:71">
       <c r="J79" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K79">
-        <v>0.0008848132666665128</v>
+        <v>0.0008848032142482582</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -12568,10 +12772,10 @@
         <v>1</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC79">
-        <v>0.008891899418051154</v>
+        <v>0.007888617646269823</v>
       </c>
       <c r="AD79">
         <v>1</v>
@@ -12589,13 +12793,13 @@
         <v>0</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT79" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AU79">
-        <v>0.0095177328698474</v>
+        <v>0.009020584311416708</v>
       </c>
       <c r="AV79">
         <v>1</v>
@@ -12613,13 +12817,13 @@
         <v>0</v>
       </c>
       <c r="BA79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL79" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BM79">
-        <v>0.00979344750719339</v>
+        <v>0.00940129452758043</v>
       </c>
       <c r="BN79">
         <v>1</v>
@@ -12637,15 +12841,15 @@
         <v>0</v>
       </c>
       <c r="BS79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="10:71">
       <c r="J80" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K80">
-        <v>0.0008848132666665128</v>
+        <v>0.0008796573813437443</v>
       </c>
       <c r="L80">
         <v>1</v>
@@ -12663,13 +12867,13 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AC80">
-        <v>0.008891899418051154</v>
+        <v>0.007888617646269823</v>
       </c>
       <c r="AD80">
         <v>1</v>
@@ -12687,13 +12891,13 @@
         <v>0</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT80" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AU80">
-        <v>0.0095177328698474</v>
+        <v>0.009020584311416708</v>
       </c>
       <c r="AV80">
         <v>1</v>
@@ -12711,13 +12915,13 @@
         <v>0</v>
       </c>
       <c r="BA80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL80" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BM80">
-        <v>0.00979344750719339</v>
+        <v>0.00940129452758043</v>
       </c>
       <c r="BN80">
         <v>1</v>
@@ -12735,15 +12939,15 @@
         <v>0</v>
       </c>
       <c r="BS80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="10:71">
       <c r="J81" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K81">
-        <v>0.0008848132666665128</v>
+        <v>0.0008796573813437443</v>
       </c>
       <c r="L81">
         <v>1</v>
@@ -12761,13 +12965,13 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC81">
-        <v>0.008811792216086729</v>
+        <v>0.007888617646269823</v>
       </c>
       <c r="AD81">
         <v>1</v>
@@ -12788,10 +12992,10 @@
         <v>2</v>
       </c>
       <c r="AT81" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AU81">
-        <v>0.009431987528677603</v>
+        <v>0.009020584311416708</v>
       </c>
       <c r="AV81">
         <v>1</v>
@@ -12812,10 +13016,10 @@
         <v>2</v>
       </c>
       <c r="BL81" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BM81">
-        <v>0.009705218250371829</v>
+        <v>0.00940129452758043</v>
       </c>
       <c r="BN81">
         <v>1</v>
@@ -12838,10 +13042,10 @@
     </row>
     <row r="82" spans="10:71">
       <c r="J82" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K82">
-        <v>0.0008796724599711261</v>
+        <v>0.0008796573813437443</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -12862,10 +13066,10 @@
         <v>2</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC82">
-        <v>0.008811792216086729</v>
+        <v>0.007762427233951235</v>
       </c>
       <c r="AD82">
         <v>1</v>
@@ -12883,13 +13087,13 @@
         <v>0</v>
       </c>
       <c r="AI82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT82" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU82">
-        <v>0.009431987528677603</v>
+        <v>0.008909425788993258</v>
       </c>
       <c r="AV82">
         <v>1</v>
@@ -12907,13 +13111,13 @@
         <v>0</v>
       </c>
       <c r="BA82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL82" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BM82">
-        <v>0.009705218250371829</v>
+        <v>0.009295191625810426</v>
       </c>
       <c r="BN82">
         <v>1</v>
@@ -12931,15 +13135,15 @@
         <v>0</v>
       </c>
       <c r="BS82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="10:71">
       <c r="J83" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K83">
-        <v>0.0008796724599711261</v>
+        <v>0.0008745115484392304</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -12957,13 +13161,13 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC83">
-        <v>0.008811792216086729</v>
+        <v>0.007762427233951235</v>
       </c>
       <c r="AD83">
         <v>1</v>
@@ -12981,13 +13185,13 @@
         <v>0</v>
       </c>
       <c r="AI83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT83" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AU83">
-        <v>0.009431987528677603</v>
+        <v>0.008909425788993258</v>
       </c>
       <c r="AV83">
         <v>1</v>
@@ -13005,13 +13209,13 @@
         <v>0</v>
       </c>
       <c r="BA83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL83" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BM83">
-        <v>0.009705218250371829</v>
+        <v>0.009295191625810426</v>
       </c>
       <c r="BN83">
         <v>1</v>
@@ -13029,15 +13233,15 @@
         <v>0</v>
       </c>
       <c r="BS83">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="10:71">
       <c r="J84" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K84">
-        <v>0.0008796724599711261</v>
+        <v>0.0008745115484392304</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -13055,13 +13259,13 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC84">
-        <v>0.008731685014122305</v>
+        <v>0.007762427233951235</v>
       </c>
       <c r="AD84">
         <v>1</v>
@@ -13082,10 +13286,10 @@
         <v>3</v>
       </c>
       <c r="AT84" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AU84">
-        <v>0.009346242187507807</v>
+        <v>0.008909425788993258</v>
       </c>
       <c r="AV84">
         <v>1</v>
@@ -13106,10 +13310,10 @@
         <v>3</v>
       </c>
       <c r="BL84" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BM84">
-        <v>0.009616988993550265</v>
+        <v>0.009295191625810426</v>
       </c>
       <c r="BN84">
         <v>1</v>
@@ -13132,10 +13336,10 @@
     </row>
     <row r="85" spans="10:71">
       <c r="J85" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K85">
-        <v>0.0008745316532757395</v>
+        <v>0.0008745115484392304</v>
       </c>
       <c r="L85">
         <v>1</v>
@@ -13156,10 +13360,10 @@
         <v>3</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC85">
-        <v>0.008731685014122305</v>
+        <v>0.007762427233951235</v>
       </c>
       <c r="AD85">
         <v>1</v>
@@ -13180,10 +13384,10 @@
         <v>3</v>
       </c>
       <c r="AT85" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AU85">
-        <v>0.009346242187507807</v>
+        <v>0.008909425788993258</v>
       </c>
       <c r="AV85">
         <v>1</v>
@@ -13204,10 +13408,10 @@
         <v>3</v>
       </c>
       <c r="BL85" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BM85">
-        <v>0.009616988993550265</v>
+        <v>0.009295191625810426</v>
       </c>
       <c r="BN85">
         <v>1</v>
@@ -13230,10 +13434,10 @@
     </row>
     <row r="86" spans="10:71">
       <c r="J86" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K86">
-        <v>0.0008745316532757395</v>
+        <v>0.0008745115484392304</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -13254,10 +13458,10 @@
         <v>3</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC86">
-        <v>0.00865157781215788</v>
+        <v>0.007636236821632648</v>
       </c>
       <c r="AD86">
         <v>1</v>
@@ -13278,10 +13482,10 @@
         <v>4</v>
       </c>
       <c r="AT86" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AU86">
-        <v>0.009260496846338012</v>
+        <v>0.008798267266569808</v>
       </c>
       <c r="AV86">
         <v>1</v>
@@ -13302,10 +13506,10 @@
         <v>4</v>
       </c>
       <c r="BL86" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BM86">
-        <v>0.009528759736728704</v>
+        <v>0.009189088724040418</v>
       </c>
       <c r="BN86">
         <v>1</v>
@@ -13328,10 +13532,10 @@
     </row>
     <row r="87" spans="10:71">
       <c r="J87" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K87">
-        <v>0.0008693908465803529</v>
+        <v>0.0008693657155347164</v>
       </c>
       <c r="L87">
         <v>1</v>
@@ -13352,10 +13556,10 @@
         <v>4</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AC87">
-        <v>0.00865157781215788</v>
+        <v>0.007510046409314059</v>
       </c>
       <c r="AD87">
         <v>1</v>
@@ -13373,13 +13577,13 @@
         <v>0</v>
       </c>
       <c r="AI87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT87" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AU87">
-        <v>0.009260496846338012</v>
+        <v>0.008687108744146358</v>
       </c>
       <c r="AV87">
         <v>1</v>
@@ -13397,13 +13601,13 @@
         <v>0</v>
       </c>
       <c r="BA87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL87" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BM87">
-        <v>0.009528759736728704</v>
+        <v>0.009082985822270413</v>
       </c>
       <c r="BN87">
         <v>1</v>
@@ -13421,15 +13625,15 @@
         <v>0</v>
       </c>
       <c r="BS87">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="10:71">
       <c r="J88" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K88">
-        <v>0.0008693908465803529</v>
+        <v>0.0008642198826302026</v>
       </c>
       <c r="L88">
         <v>1</v>
@@ -13447,13 +13651,13 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC88">
-        <v>0.00865157781215788</v>
+        <v>0.007510046409314059</v>
       </c>
       <c r="AD88">
         <v>1</v>
@@ -13471,13 +13675,13 @@
         <v>0</v>
       </c>
       <c r="AI88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT88" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AU88">
-        <v>0.009260496846338012</v>
+        <v>0.008687108744146358</v>
       </c>
       <c r="AV88">
         <v>1</v>
@@ -13495,13 +13699,13 @@
         <v>0</v>
       </c>
       <c r="BA88">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL88" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BM88">
-        <v>0.009528759736728704</v>
+        <v>0.009082985822270413</v>
       </c>
       <c r="BN88">
         <v>1</v>
@@ -13519,15 +13723,15 @@
         <v>0</v>
       </c>
       <c r="BS88">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="10:71">
       <c r="J89" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K89">
-        <v>0.0008693908465803529</v>
+        <v>0.0008642198826302026</v>
       </c>
       <c r="L89">
         <v>1</v>
@@ -13545,13 +13749,13 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC89">
-        <v>0.00865157781215788</v>
+        <v>0.007510046409314059</v>
       </c>
       <c r="AD89">
         <v>1</v>
@@ -13569,13 +13773,13 @@
         <v>0</v>
       </c>
       <c r="AI89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT89" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AU89">
-        <v>0.009260496846338012</v>
+        <v>0.008687108744146358</v>
       </c>
       <c r="AV89">
         <v>1</v>
@@ -13593,13 +13797,13 @@
         <v>0</v>
       </c>
       <c r="BA89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL89" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BM89">
-        <v>0.009528759736728704</v>
+        <v>0.009082985822270413</v>
       </c>
       <c r="BN89">
         <v>1</v>
@@ -13617,15 +13821,15 @@
         <v>0</v>
       </c>
       <c r="BS89">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="10:71">
       <c r="J90" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K90">
-        <v>0.0008693908465803529</v>
+        <v>0.0008642198826302026</v>
       </c>
       <c r="L90">
         <v>1</v>
@@ -13643,13 +13847,13 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB90" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC90">
-        <v>0.008571470610193454</v>
+        <v>0.00738385599699547</v>
       </c>
       <c r="AD90">
         <v>1</v>
@@ -13667,13 +13871,13 @@
         <v>0</v>
       </c>
       <c r="AI90">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT90" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AU90">
-        <v>0.009174751505168215</v>
+        <v>0.008575950221722906</v>
       </c>
       <c r="AV90">
         <v>1</v>
@@ -13691,13 +13895,13 @@
         <v>0</v>
       </c>
       <c r="BA90">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL90" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BM90">
-        <v>0.009440530479907141</v>
+        <v>0.008976882920500407</v>
       </c>
       <c r="BN90">
         <v>1</v>
@@ -13715,15 +13919,15 @@
         <v>0</v>
       </c>
       <c r="BS90">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="10:71">
       <c r="J91" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K91">
-        <v>0.0008642500398849662</v>
+        <v>0.0008590740497256887</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -13741,13 +13945,13 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC91">
-        <v>0.008571470610193454</v>
+        <v>0.00738385599699547</v>
       </c>
       <c r="AD91">
         <v>1</v>
@@ -13765,13 +13969,13 @@
         <v>0</v>
       </c>
       <c r="AI91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT91" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AU91">
-        <v>0.009174751505168215</v>
+        <v>0.008575950221722906</v>
       </c>
       <c r="AV91">
         <v>1</v>
@@ -13789,13 +13993,13 @@
         <v>0</v>
       </c>
       <c r="BA91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL91" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BM91">
-        <v>0.009440530479907141</v>
+        <v>0.008976882920500407</v>
       </c>
       <c r="BN91">
         <v>1</v>
@@ -13813,15 +14017,15 @@
         <v>0</v>
       </c>
       <c r="BS91">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="10:71">
       <c r="J92" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K92">
-        <v>0.0008642500398849662</v>
+        <v>0.0008590740497256887</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -13839,13 +14043,13 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AC92">
-        <v>0.00833114900430018</v>
+        <v>0.007257665584676883</v>
       </c>
       <c r="AD92">
         <v>1</v>
@@ -13863,13 +14067,13 @@
         <v>0</v>
       </c>
       <c r="AI92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT92" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AU92">
-        <v>0.008917515481658825</v>
+        <v>0.008464791699299458</v>
       </c>
       <c r="AV92">
         <v>1</v>
@@ -13887,13 +14091,13 @@
         <v>0</v>
       </c>
       <c r="BA92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BL92" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BM92">
-        <v>0.009175842709442456</v>
+        <v>0.008870780018730401</v>
       </c>
       <c r="BN92">
         <v>1</v>
@@ -13911,15 +14115,15 @@
         <v>0</v>
       </c>
       <c r="BS92">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="10:71">
       <c r="J93" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K93">
-        <v>0.0008488276197988063</v>
+        <v>0.0008539282168211747</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -13937,13 +14141,13 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AC93">
-        <v>0.00833114900430018</v>
+        <v>0.007131475172358296</v>
       </c>
       <c r="AD93">
         <v>1</v>
@@ -13964,10 +14168,10 @@
         <v>8</v>
       </c>
       <c r="AT93" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AU93">
-        <v>0.008917515481658825</v>
+        <v>0.008353633176876006</v>
       </c>
       <c r="AV93">
         <v>1</v>
@@ -13988,10 +14192,10 @@
         <v>8</v>
       </c>
       <c r="BL93" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BM93">
-        <v>0.009175842709442456</v>
+        <v>0.008764677116960396</v>
       </c>
       <c r="BN93">
         <v>1</v>
@@ -14014,10 +14218,10 @@
     </row>
     <row r="94" spans="10:71">
       <c r="J94" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K94">
-        <v>0.0008488276197988063</v>
+        <v>0.0008487823839166608</v>
       </c>
       <c r="L94">
         <v>1</v>
@@ -14038,10 +14242,10 @@
         <v>8</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AC94">
-        <v>0.008251041802335756</v>
+        <v>0.007131475172358296</v>
       </c>
       <c r="AD94">
         <v>1</v>
@@ -14059,13 +14263,13 @@
         <v>0</v>
       </c>
       <c r="AI94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT94" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AU94">
-        <v>0.008831770140489029</v>
+        <v>0.008353633176876006</v>
       </c>
       <c r="AV94">
         <v>1</v>
@@ -14083,13 +14287,13 @@
         <v>0</v>
       </c>
       <c r="BA94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BL94" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BM94">
-        <v>0.009087613452620893</v>
+        <v>0.008764677116960396</v>
       </c>
       <c r="BN94">
         <v>1</v>
@@ -14107,15 +14311,15 @@
         <v>0</v>
       </c>
       <c r="BS94">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="10:71">
       <c r="J95" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K95">
-        <v>0.0008436868131034196</v>
+        <v>0.0008487823839166608</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -14133,37 +14337,37 @@
         <v>0</v>
       </c>
       <c r="Q95">
+        <v>8</v>
+      </c>
+      <c r="AB95" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC95">
+        <v>0.007005284760039707</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AE95">
+        <v>1</v>
+      </c>
+      <c r="AF95">
+        <v>1</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI95">
         <v>9</v>
       </c>
-      <c r="AB95" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC95">
-        <v>0.00817093460037133</v>
-      </c>
-      <c r="AD95">
-        <v>1</v>
-      </c>
-      <c r="AE95">
-        <v>1</v>
-      </c>
-      <c r="AF95">
-        <v>1</v>
-      </c>
-      <c r="AG95">
-        <v>0</v>
-      </c>
-      <c r="AH95" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI95">
-        <v>10</v>
-      </c>
       <c r="AT95" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AU95">
-        <v>0.008746024799319232</v>
+        <v>0.008242474654452558</v>
       </c>
       <c r="AV95">
         <v>1</v>
@@ -14181,13 +14385,13 @@
         <v>0</v>
       </c>
       <c r="BA95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BL95" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BM95">
-        <v>0.008999384195799331</v>
+        <v>0.00865857421519039</v>
       </c>
       <c r="BN95">
         <v>1</v>
@@ -14205,15 +14409,15 @@
         <v>0</v>
       </c>
       <c r="BS95">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="10:71">
       <c r="J96" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K96">
-        <v>0.000838546006408033</v>
+        <v>0.0008436365510121468</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -14231,37 +14435,37 @@
         <v>0</v>
       </c>
       <c r="Q96">
+        <v>9</v>
+      </c>
+      <c r="AB96" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC96">
+        <v>0.00687909434772112</v>
+      </c>
+      <c r="AD96">
+        <v>1</v>
+      </c>
+      <c r="AE96">
+        <v>1</v>
+      </c>
+      <c r="AF96">
+        <v>1</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI96">
         <v>10</v>
       </c>
-      <c r="AB96" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC96">
-        <v>0.008010720196442481</v>
-      </c>
-      <c r="AD96">
-        <v>1</v>
-      </c>
-      <c r="AE96">
-        <v>1</v>
-      </c>
-      <c r="AF96">
-        <v>1</v>
-      </c>
-      <c r="AG96">
-        <v>0</v>
-      </c>
-      <c r="AH96" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI96">
-        <v>12</v>
-      </c>
       <c r="AT96" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AU96">
-        <v>0.008574534116979639</v>
+        <v>0.008131316132029106</v>
       </c>
       <c r="AV96">
         <v>1</v>
@@ -14279,13 +14483,13 @@
         <v>0</v>
       </c>
       <c r="BA96">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BL96" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BM96">
-        <v>0.008822925682156207</v>
+        <v>0.008552471313420384</v>
       </c>
       <c r="BN96">
         <v>1</v>
@@ -14303,15 +14507,15 @@
         <v>0</v>
       </c>
       <c r="BS96">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="10:71">
       <c r="J97" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K97">
-        <v>0.0008282643930172597</v>
+        <v>0.0008384907181076328</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -14329,37 +14533,37 @@
         <v>0</v>
       </c>
       <c r="Q97">
+        <v>10</v>
+      </c>
+      <c r="AB97" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC97">
+        <v>0.006626713523083943</v>
+      </c>
+      <c r="AD97">
+        <v>1</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
+      </c>
+      <c r="AF97">
+        <v>1</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI97">
         <v>12</v>
       </c>
-      <c r="AB97" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC97">
-        <v>0.007751529802331395</v>
-      </c>
-      <c r="AD97">
-        <v>2</v>
-      </c>
-      <c r="AE97">
-        <v>2</v>
-      </c>
-      <c r="AF97">
-        <v>1</v>
-      </c>
-      <c r="AG97">
-        <v>0</v>
-      </c>
-      <c r="AH97" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI97">
-        <v>37</v>
-      </c>
       <c r="AT97" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AU97">
-        <v>0.008231552752300454</v>
+        <v>0.007908999087182206</v>
       </c>
       <c r="AV97">
         <v>1</v>
@@ -14377,13 +14581,13 @@
         <v>0</v>
       </c>
       <c r="BA97">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BL97" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BM97">
-        <v>0.00847000865486996</v>
+        <v>0.008340265509880374</v>
       </c>
       <c r="BN97">
         <v>1</v>
@@ -14401,15 +14605,15 @@
         <v>0</v>
       </c>
       <c r="BS97">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="10:71">
       <c r="J98" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K98">
-        <v>0.0008077011662357132</v>
+        <v>0.000828199052298605</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -14427,13 +14631,13 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AC98">
-        <v>0.007690291388584782</v>
+        <v>0.00624814228612818</v>
       </c>
       <c r="AD98">
         <v>1</v>
@@ -14451,19 +14655,19 @@
         <v>0</v>
       </c>
       <c r="AI98">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT98" s="1" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="AU98">
-        <v>0.007497300979980084</v>
+        <v>0.007575523519911855</v>
       </c>
       <c r="AV98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX98">
         <v>1</v>
@@ -14475,19 +14679,19 @@
         <v>0</v>
       </c>
       <c r="BA98">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="BL98" s="1" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="BM98">
-        <v>0.007385298965136843</v>
+        <v>0.008021956804570357</v>
       </c>
       <c r="BN98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP98">
         <v>1</v>
@@ -14499,15 +14703,15 @@
         <v>0</v>
       </c>
       <c r="BS98">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="10:71">
       <c r="J99" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K99">
-        <v>0.0003141837234785951</v>
+        <v>0.0008127615535850632</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -14525,13 +14729,13 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="AB99" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AC99">
-        <v>0</v>
+        <v>0.006121951873809592</v>
       </c>
       <c r="AD99">
         <v>1</v>
@@ -14549,13 +14753,13 @@
         <v>0</v>
       </c>
       <c r="AI99">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="AT99" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AU99">
-        <v>0</v>
+        <v>0.007464364997488405</v>
       </c>
       <c r="AV99">
         <v>1</v>
@@ -14573,13 +14777,13 @@
         <v>0</v>
       </c>
       <c r="BA99">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="BL99" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BM99">
-        <v>0</v>
+        <v>0.007915853902800351</v>
       </c>
       <c r="BN99">
         <v>1</v>
@@ -14597,7 +14801,301 @@
         <v>0</v>
       </c>
       <c r="BS99">
-        <v>112</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="10:71">
+      <c r="J100" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K100">
+        <v>0.0008076157206805492</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>16</v>
+      </c>
+      <c r="AB100" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC100">
+        <v>0.003093381978163481</v>
+      </c>
+      <c r="AD100">
+        <v>1</v>
+      </c>
+      <c r="AE100">
+        <v>1</v>
+      </c>
+      <c r="AF100">
+        <v>1</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>40</v>
+      </c>
+      <c r="AT100" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU100">
+        <v>0.004796560459325598</v>
+      </c>
+      <c r="AV100">
+        <v>1</v>
+      </c>
+      <c r="AW100">
+        <v>1</v>
+      </c>
+      <c r="AX100">
+        <v>1</v>
+      </c>
+      <c r="AY100">
+        <v>0</v>
+      </c>
+      <c r="AZ100" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA100">
+        <v>40</v>
+      </c>
+      <c r="BL100" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM100">
+        <v>0.005369384260320216</v>
+      </c>
+      <c r="BN100">
+        <v>1</v>
+      </c>
+      <c r="BO100">
+        <v>1</v>
+      </c>
+      <c r="BP100">
+        <v>1</v>
+      </c>
+      <c r="BQ100">
+        <v>0</v>
+      </c>
+      <c r="BR100" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS100">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="10:71">
+      <c r="J101" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K101">
+        <v>0.0006841157309722149</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>40</v>
+      </c>
+      <c r="AB101" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC101">
+        <v>0.002462429916570541</v>
+      </c>
+      <c r="AD101">
+        <v>1</v>
+      </c>
+      <c r="AE101">
+        <v>1</v>
+      </c>
+      <c r="AF101">
+        <v>1</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>45</v>
+      </c>
+      <c r="AT101" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU101">
+        <v>0.004240767847208345</v>
+      </c>
+      <c r="AV101">
+        <v>1</v>
+      </c>
+      <c r="AW101">
+        <v>1</v>
+      </c>
+      <c r="AX101">
+        <v>1</v>
+      </c>
+      <c r="AY101">
+        <v>0</v>
+      </c>
+      <c r="AZ101" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA101">
+        <v>45</v>
+      </c>
+      <c r="BL101" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM101">
+        <v>0.004838869751470188</v>
+      </c>
+      <c r="BN101">
+        <v>1</v>
+      </c>
+      <c r="BO101">
+        <v>1</v>
+      </c>
+      <c r="BP101">
+        <v>1</v>
+      </c>
+      <c r="BQ101">
+        <v>0</v>
+      </c>
+      <c r="BR101" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS101">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="10:71">
+      <c r="J102" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K102">
+        <v>0.0006583865664496454</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>45</v>
+      </c>
+      <c r="AB102" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>3</v>
+      </c>
+      <c r="AE102">
+        <v>5</v>
+      </c>
+      <c r="AF102">
+        <v>0.6</v>
+      </c>
+      <c r="AG102">
+        <v>0.4</v>
+      </c>
+      <c r="AH102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI102">
+        <v>108</v>
+      </c>
+      <c r="AT102" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU102">
+        <v>0</v>
+      </c>
+      <c r="AV102">
+        <v>3</v>
+      </c>
+      <c r="AW102">
+        <v>5</v>
+      </c>
+      <c r="AX102">
+        <v>0.6</v>
+      </c>
+      <c r="AY102">
+        <v>0.4</v>
+      </c>
+      <c r="AZ102" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA102">
+        <v>108</v>
+      </c>
+      <c r="BL102" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM102">
+        <v>0</v>
+      </c>
+      <c r="BN102">
+        <v>3</v>
+      </c>
+      <c r="BO102">
+        <v>5</v>
+      </c>
+      <c r="BP102">
+        <v>0.6</v>
+      </c>
+      <c r="BQ102">
+        <v>0.4</v>
+      </c>
+      <c r="BR102" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS102">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
